--- a/genshin/502665801046615334_2021-03-16_14-00-02.xlsx
+++ b/genshin/502665801046615334_2021-03-16_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-15 03:10:22</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44301.13219907408</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -605,10 +619,8 @@
           <t>4409340258</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-13 21:16:50</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44299.88668981481</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -672,10 +684,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-13 21:14:35</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44299.88512731482</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -739,10 +749,8 @@
           <t>4324063015</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-27 17:21:53</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44282.72353009259</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -806,10 +814,8 @@
           <t>4300280478</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:30:40</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44277.8962962963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -885,10 +891,8 @@
           <t>4300280478</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-22 21:28:40</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44277.8949074074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -960,10 +964,8 @@
           <t>4300280478</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-22 09:36:52</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44277.40060185185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1039,10 +1041,8 @@
           <t>4299161198</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-21 23:10:23</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44276.96554398148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1110,10 +1110,8 @@
           <t>4273686477</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-21 18:35:02</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44276.7743287037</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1189,10 +1187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-21 12:33:11</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44276.52304398148</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1252,10 +1248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-20 18:00:16</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44275.75018518518</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1319,10 +1313,8 @@
           <t>4274047930</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-20 17:47:21</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44275.74121527778</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1390,10 +1382,8 @@
           <t>4282038670</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-18 13:48:46</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44273.57553240741</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1461,10 +1451,8 @@
           <t>4281023507</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-18 08:49:44</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44273.36787037037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1532,10 +1520,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-18 00:13:02</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44273.00905092592</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1603,10 +1589,8 @@
           <t>4280174416</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:44:02</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44272.98891203704</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -1670,10 +1654,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:19:22</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44272.97178240741</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1741,10 +1723,8 @@
           <t>4279977428</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-17 23:07:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44272.96325231482</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1804,10 +1784,8 @@
           <t>4279241517</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:42:32</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44272.86287037037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1871,10 +1849,8 @@
           <t>4275685990</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:41:02</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44272.8618287037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1950,10 +1926,8 @@
           <t>4275990120</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:23:41</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44272.80811342593</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2021,10 +1995,8 @@
           <t>4278692063</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:42:05</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44272.77922453704</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2096,10 +2068,8 @@
           <t>4275685990</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:35:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44272.77444444445</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2163,10 +2133,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-17 17:58:15</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44272.74878472222</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2234,10 +2202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-17 16:35:14</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44272.69113425926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2307,10 +2273,8 @@
           <t>4277950621</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-17 15:15:03</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44272.63545138889</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2386,10 +2350,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-17 15:06:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44272.62958333334</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2453,10 +2415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-17 14:42:06</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44272.61256944444</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2532,10 +2492,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-17 14:34:41</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44272.60741898148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2599,10 +2557,8 @@
           <t>4277449037</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-17 12:43:15</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44272.53003472222</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2666,10 +2622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:53:13</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44272.45362268519</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2737,10 +2691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:43:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44272.44657407407</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2816,10 +2768,8 @@
           <t>4276777498</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:10:48</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44272.3825</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2887,10 +2837,8 @@
           <t>4273634901</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:50:08</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44272.36814814815</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2958,10 +2906,8 @@
           <t>4276661849</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:19:33</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44272.34690972222</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3037,10 +2983,8 @@
           <t>4274056631</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:17:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44272.34520833333</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3116,10 +3060,8 @@
           <t>4276564273</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:24:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44272.30898148148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3195,10 +3137,8 @@
           <t>4276504379</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:27:06</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44272.26881944444</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3274,10 +3214,8 @@
           <t>4275060856</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-17 03:10:13</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44272.13209490741</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3349,10 +3287,8 @@
           <t>4276230054</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:14:37</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44272.05181712963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3428,10 +3364,8 @@
           <t>4276173094</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:55:52</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44272.0387962963</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3507,10 +3441,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:55:11</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44272.03832175926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3586,10 +3518,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:54:39</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44272.03795138889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3665,10 +3595,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:43:40</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44272.03032407408</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3736,10 +3664,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:31:10</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44272.02164351852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3814,10 +3740,8 @@
           <t>4275990120</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:05:47</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44272.0040162037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3881,10 +3805,8 @@
           <t>4275845376</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:32</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44271.98300925926</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3952,10 +3874,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:32:04</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44271.98060185185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4019,10 +3939,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:30:36</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44271.97958333333</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4086,10 +4004,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:23:53</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44271.97491898148</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4161,10 +4077,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:13</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44271.97167824074</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4228,10 +4142,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:16</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44271.97101851852</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4295,10 +4207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:14:56</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44271.9687037037</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4370,10 +4280,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:14:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44271.96828703704</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4445,10 +4353,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:10</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44271.96678240741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4520,10 +4426,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:09</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44271.96607638889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4591,10 +4495,8 @@
           <t>4275698597</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:53</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44271.96519675926</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4662,10 +4564,8 @@
           <t>4275685990</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:34</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44271.96289351852</v>
       </c>
       <c r="I59" t="n">
         <v>4</v>
@@ -4741,10 +4641,8 @@
           <t>4275675677</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:02</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44271.96113425926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4812,10 +4710,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:09</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44271.95774305556</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4879,10 +4775,8 @@
           <t>4275637609</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:20</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44271.95717592593</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4950,10 +4844,8 @@
           <t>4275581759</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:47:26</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44271.94960648148</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5021,10 +4913,8 @@
           <t>4275538007</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:39:34</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44271.94414351852</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5090,10 +4980,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:33:06</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44271.93965277778</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5161,10 +5049,8 @@
           <t>4275499089</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:32:54</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44271.93951388889</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5240,10 +5126,8 @@
           <t>4273470489</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:29:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44271.9374537037</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5319,10 +5203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:29:48</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44271.93736111111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5386,10 +5268,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:18:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44271.92934027778</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5453,10 +5333,8 @@
           <t>4275418419</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:17:46</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44271.92900462963</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
@@ -5516,10 +5394,8 @@
           <t>4275311733</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:56:49</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44271.91445601852</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5591,10 +5467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:54:48</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44271.91305555555</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5670,10 +5544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:47:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44271.90777777778</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5741,10 +5613,8 @@
           <t>4275131543</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:46:01</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44271.90695601852</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5820,10 +5690,8 @@
           <t>4275246580</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:43:31</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44271.90521990741</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5886,10 +5754,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:41:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44271.90407407407</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5953,10 +5819,8 @@
           <t>4275131543</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:41:51</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44271.9040625</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6032,10 +5896,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:32:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44271.89778935185</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6107,10 +5969,8 @@
           <t>4275131543</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:32:31</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44271.89758101852</v>
       </c>
       <c r="I79" t="n">
         <v>2</v>
@@ -6174,10 +6034,8 @@
           <t>4275180613</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:30:05</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44271.89589120371</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6249,10 +6107,8 @@
           <t>4275176237</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:29:31</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44271.89549768518</v>
       </c>
       <c r="I81" t="n">
         <v>7</v>
@@ -6316,10 +6172,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:27:57</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44271.89440972222</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6395,10 +6249,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:27:44</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44271.89425925926</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6474,10 +6326,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:22:44</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44271.89078703704</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6544,10 +6394,8 @@
           <t>4275131543</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:20:30</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44271.88923611111</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6623,10 +6471,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:19:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44271.88850694444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6703,10 +6549,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:11:25</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44271.88292824074</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6770,10 +6614,8 @@
           <t>4275060856</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-16 21:05:07</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44271.87855324074</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6849,10 +6691,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:58:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44271.87405092592</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6920,10 +6760,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:57:30</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44271.87326388889</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6991,10 +6829,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:51:26</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44271.86905092592</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7063,10 +6899,8 @@
           <t>4274958963</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:44:27</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44271.86420138889</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7142,10 +6976,8 @@
           <t>4274949860</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:44:18</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44271.86409722222</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7214,10 +7046,8 @@
           <t>4274948289</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:43:15</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44271.86336805556</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7293,10 +7123,8 @@
           <t>4274945173</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:41:12</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44271.86194444444</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7360,10 +7188,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:39:02</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44271.86043981482</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7439,10 +7265,8 @@
           <t>4274931669</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:38:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44271.86038194445</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7520,10 +7344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:33:24</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44271.85652777777</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7595,10 +7417,8 @@
           <t>4274887235</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:29:31</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44271.85383101852</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7670,10 +7490,8 @@
           <t>4274546689</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:24:25</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44271.85028935185</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7745,10 +7563,8 @@
           <t>4274805820</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:09:29</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44271.83991898148</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7808,10 +7624,8 @@
           <t>4273545821</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:07:26</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44271.83849537037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7871,10 +7685,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:05:32</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44271.83717592592</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7942,10 +7754,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:04:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44271.83648148148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8017,10 +7827,8 @@
           <t>4274546689</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-16 20:04:29</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44271.83644675926</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8080,10 +7888,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:58:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44271.8324537037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8143,10 +7949,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:58:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44271.83210648148</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8210,10 +8014,8 @@
           <t>4274747525</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:57:27</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44271.8315625</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8289,10 +8091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:48</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44271.83041666666</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8356,10 +8156,8 @@
           <t>4274620467</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:55:47</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44271.83040509259</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8431,10 +8229,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:50:02</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44271.82641203704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8494,10 +8290,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:46:50</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44271.82418981481</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8565,10 +8359,8 @@
           <t>4274620467</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:43:45</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44271.82204861111</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8640,10 +8432,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:36:17</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44271.81686342593</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8719,10 +8509,8 @@
           <t>4274639204</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:35:11</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44271.81609953703</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8786,10 +8574,8 @@
           <t>4274619505</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:31:41</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44271.81366898148</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8865,10 +8651,8 @@
           <t>4274625535</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:30:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44271.81259259259</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8945,10 +8729,8 @@
           <t>4274620467</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:29:31</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44271.81216435185</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9020,10 +8802,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:28:01</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44271.81112268518</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9091,10 +8871,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:27:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44271.81069444444</v>
       </c>
       <c r="I120" t="n">
         <v>3</v>
@@ -9162,10 +8940,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:14:16</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44271.80157407407</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9241,10 +9017,8 @@
           <t>4274546689</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:14:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44271.80149305556</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9320,10 +9094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:09:41</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44271.7983912037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9391,10 +9163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:08:23</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44271.79748842592</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9470,10 +9240,8 @@
           <t>4274508478</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:06:00</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44271.79583333333</v>
       </c>
       <c r="I125" t="n">
         <v>13</v>
@@ -9545,10 +9313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-16 19:05:03</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44271.79517361111</v>
       </c>
       <c r="I126" t="n">
         <v>29</v>
@@ -9621,10 +9387,8 @@
           <t>4274473439</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:59:09</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44271.79107638889</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9696,10 +9460,8 @@
           <t>4274449719</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:53:51</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44271.78739583334</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9775,10 +9537,8 @@
           <t>4274437878</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:51:31</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44271.78577546297</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9838,10 +9598,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:45:36</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44271.78166666667</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9909,10 +9667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:44:19</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44271.78077546296</v>
       </c>
       <c r="I131" t="n">
         <v>1</v>
@@ -9980,10 +9736,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:43:05</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44271.77991898148</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10055,10 +9809,8 @@
           <t>4274395008</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:55</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44271.77841435185</v>
       </c>
       <c r="I133" t="n">
         <v>3</v>
@@ -10126,10 +9878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:46</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44271.77831018518</v>
       </c>
       <c r="I134" t="n">
         <v>6</v>
@@ -10193,10 +9943,8 @@
           <t>4274391222</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:40:44</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44271.77828703704</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10264,10 +10012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:38:45</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44271.77690972222</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10339,10 +10085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:36:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44271.77552083333</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10410,10 +10154,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:50</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44271.77488425926</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10481,10 +10223,8 @@
           <t>4274370447</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:35:04</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44271.77435185185</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10556,10 +10296,8 @@
           <t>4274342850</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:30:10</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44271.77094907407</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10619,10 +10357,8 @@
           <t>4274324153</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:27:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44271.76912037037</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10690,10 +10426,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:26:22</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44271.76831018519</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10769,10 +10503,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:25:09</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44271.76746527778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10848,10 +10580,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:31</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44271.76702546296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10927,10 +10657,8 @@
           <t>4274309288</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:24:24</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44271.76694444445</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10998,10 +10726,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:23:40</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44271.76643518519</v>
       </c>
       <c r="I146" t="n">
         <v>2</v>
@@ -11065,10 +10791,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:17:07</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44271.76188657407</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11140,10 +10864,8 @@
           <t>4274285021</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:46</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44271.76164351852</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11211,10 +10933,8 @@
           <t>4273474814</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:16:03</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44271.76114583333</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11282,10 +11002,8 @@
           <t>4274280239</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:15:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44271.76055555556</v>
       </c>
       <c r="I150" t="n">
         <v>7</v>
@@ -11349,10 +11067,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:12:49</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44271.75890046296</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11424,10 +11140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:11:36</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44271.75805555555</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11491,10 +11205,8 @@
           <t>4274056631</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:36</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44271.75666666667</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11566,10 +11278,8 @@
           <t>4274246809</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:31</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44271.7566087963</v>
       </c>
       <c r="I154" t="n">
         <v>4</v>
@@ -11645,10 +11355,8 @@
           <t>4273516896</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:09:26</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44271.75655092593</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11720,10 +11428,8 @@
           <t>4274233197</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:07:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44271.75494212963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11799,10 +11505,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:06:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44271.75479166667</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11874,10 +11578,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:05:03</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44271.75350694444</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11953,10 +11655,8 @@
           <t>4274217575</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:03:25</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44271.75237268519</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12033,10 +11733,8 @@
           <t>4274217498</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-16 18:03:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44271.75234953704</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12108,10 +11806,8 @@
           <t>4274199703</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:59:54</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44271.74993055555</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12175,10 +11871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:53:31</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44271.74549768519</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12242,10 +11936,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:52:10</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44271.74456018519</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12321,10 +12013,8 @@
           <t>4273939645</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:51:24</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44271.74402777778</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12384,10 +12074,8 @@
           <t>4274154047</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:48:26</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44271.74196759259</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12466,10 +12154,8 @@
           <t>4274114789</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:39:52</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44271.73601851852</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12541,10 +12227,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:39:50</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44271.73599537037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12620,10 +12304,8 @@
           <t>4274122334</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:39:31</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44271.73577546296</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12691,10 +12373,8 @@
           <t>4274047930</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:37:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44271.73471064815</v>
       </c>
       <c r="I169" t="n">
         <v>20</v>
@@ -12758,10 +12438,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:31:52</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44271.73046296297</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12833,10 +12511,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:30:08</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44271.72925925926</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12904,10 +12580,8 @@
           <t>4274081211</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:29:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44271.72878472223</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12979,10 +12653,8 @@
           <t>4273695981</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:24:39</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44271.72545138889</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -13050,10 +12722,8 @@
           <t>4274059583</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:24:00</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44271.725</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13117,10 +12787,8 @@
           <t>4273515837</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:23:22</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44271.72456018518</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13188,10 +12856,8 @@
           <t>4274056631</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:21:32</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44271.72328703704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13259,10 +12925,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:21:13</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44271.72306712963</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13334,10 +12998,8 @@
           <t>4274047930</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:19:58</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44271.72219907407</v>
       </c>
       <c r="I178" t="n">
         <v>17</v>
@@ -13405,10 +13067,8 @@
           <t>4274047228</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:19:23</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44271.72179398148</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13476,10 +13136,8 @@
           <t>4274038550</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:18:53</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44271.72144675926</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13543,10 +13201,8 @@
           <t>4274045161</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:17:38</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44271.7205787037</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13618,10 +13274,8 @@
           <t>4274017805</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:11:21</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44271.71621527777</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13689,10 +13343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:08:15</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44271.7140625</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13756,10 +13408,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:07:16</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44271.71337962963</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13835,10 +13485,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:06:30</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44271.71284722222</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13914,10 +13562,8 @@
           <t>4273993823</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:06:08</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44271.71259259259</v>
       </c>
       <c r="I186" t="n">
         <v>4</v>
@@ -13993,10 +13639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:05:45</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44271.71232638889</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14068,10 +13712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:05:39</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44271.71225694445</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14143,10 +13785,8 @@
           <t>4273992432</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:04:54</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44271.71173611111</v>
       </c>
       <c r="I189" t="n">
         <v>3</v>
@@ -14214,10 +13854,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:04:13</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44271.71126157408</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14291,10 +13929,8 @@
           <t>4273990261</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-16 17:02:56</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44271.71037037037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14358,10 +13994,8 @@
           <t>4273981585</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:59:47</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44271.70818287037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14437,10 +14071,8 @@
           <t>4273970543</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:55:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44271.70546296296</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14504,10 +14136,8 @@
           <t>4273961076</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:54:44</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44271.70467592592</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14571,10 +14201,8 @@
           <t>4273959139</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:54:34</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44271.70456018519</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -14638,10 +14266,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:54:18</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44271.704375</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14713,10 +14339,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:53:33</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44271.70385416667</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14788,10 +14412,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:50:29</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44271.70172453704</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14855,10 +14477,8 @@
           <t>4273951288</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:50:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44271.70167824074</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14918,10 +14538,8 @@
           <t>4273939680</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:48:51</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44271.70059027777</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -14989,10 +14607,8 @@
           <t>4273939645</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:48:49</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44271.70056712963</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15068,10 +14684,8 @@
           <t>4273939278</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:48:29</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44271.70033564815</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15147,10 +14761,8 @@
           <t>4273934190</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:48:15</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44271.70017361111</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15226,10 +14838,8 @@
           <t>4273938545</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:47:49</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44271.69987268518</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15305,10 +14915,8 @@
           <t>4273940874</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:46:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44271.69920138889</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15380,10 +14988,8 @@
           <t>4273937095</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:46:27</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44271.69892361111</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15459,10 +15065,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:43:36</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44271.69694444445</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15522,10 +15126,8 @@
           <t>4273695981</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:42:58</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44271.69650462963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15589,10 +15191,8 @@
           <t>4273516896</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:42:18</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44271.69604166667</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15668,10 +15268,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:42:12</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44271.69597222222</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15739,10 +15337,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:42:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44271.69587962963</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15810,10 +15406,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:41:36</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44271.69555555555</v>
       </c>
       <c r="I212" t="n">
         <v>2</v>
@@ -15889,10 +15483,8 @@
           <t>4273914580</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:40:55</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44271.69508101852</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15956,10 +15548,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:40:28</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44271.69476851852</v>
       </c>
       <c r="I214" t="n">
         <v>9</v>
@@ -16035,10 +15625,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:38:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44271.69372685185</v>
       </c>
       <c r="I215" t="n">
         <v>7</v>
@@ -16106,10 +15694,8 @@
           <t>4273911292</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:37:50</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44271.69293981481</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16185,10 +15771,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:36:53</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44271.69228009259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16260,10 +15844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:35:52</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44271.69157407407</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16331,10 +15913,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:34:18</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44271.69048611111</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16398,10 +15978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:33:53</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44271.69019675926</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16469,10 +16047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:33:23</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44271.68984953704</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16536,10 +16112,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:31:51</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44271.68878472222</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16611,10 +16185,8 @@
           <t>4273695981</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:29:04</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44271.68685185185</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16690,10 +16262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:28:46</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44271.68664351852</v>
       </c>
       <c r="I224" t="n">
         <v>236</v>
@@ -16761,10 +16331,8 @@
           <t>4273881046</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:28:04</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44271.68615740741</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16834,10 +16402,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:27:24</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44271.68569444444</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16905,10 +16471,8 @@
           <t>4273858518</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:23:26</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44271.68293981482</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
@@ -16980,10 +16544,8 @@
           <t>4273866301</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:23:24</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44271.68291666666</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17060,10 +16622,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:23:19</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44271.6828587963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17139,10 +16699,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:22:25</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44271.68223379629</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17218,10 +16776,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:19:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44271.68046296296</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17297,10 +16853,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:17:37</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44271.67890046296</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17368,10 +16922,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:14:31</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44271.67674768518</v>
       </c>
       <c r="I233" t="n">
         <v>7</v>
@@ -17439,10 +16991,8 @@
           <t>4273828790</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:13:43</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44271.67619212963</v>
       </c>
       <c r="I234" t="n">
         <v>7</v>
@@ -17518,10 +17068,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:13:40</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44271.6761574074</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17585,10 +17133,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:11:07</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44271.67438657407</v>
       </c>
       <c r="I236" t="n">
         <v>34</v>
@@ -17656,10 +17202,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:10:15</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44271.67378472222</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17727,10 +17271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:09:52</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44271.67351851852</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17806,10 +17348,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:09:00</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44271.67291666667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17877,10 +17417,8 @@
           <t>4273819046</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:09:00</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44271.67291666667</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17948,10 +17486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:06:33</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44271.67121527778</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18027,10 +17563,8 @@
           <t>4273816352</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:06:18</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44271.67104166667</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18106,10 +17640,8 @@
           <t>4273810519</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:05:22</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44271.67039351852</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18169,10 +17701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:05:14</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44271.67030092593</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18242,10 +17772,8 @@
           <t>4273714713</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:05:02</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44271.67016203704</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18317,10 +17845,8 @@
           <t>4273807574</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:04:50</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44271.67002314814</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18392,10 +17918,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:04:42</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44271.66993055555</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18459,10 +17983,8 @@
           <t>4273798628</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:03:32</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44271.66912037037</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -18530,10 +18052,8 @@
           <t>4273797214</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-16 16:02:06</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44271.668125</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18597,10 +18117,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:59:43</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44271.66646990741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18668,10 +18186,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:56:34</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44271.66428240741</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18739,10 +18255,8 @@
           <t>4273781775</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:56:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44271.6641087963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18818,10 +18332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:56:16</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44271.66407407408</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18893,10 +18405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:55:11</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44271.66332175926</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18960,10 +18470,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:54:33</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44271.66288194444</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19031,10 +18539,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:54:17</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44271.66269675926</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19094,10 +18600,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:52:13</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44271.66126157407</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19182,10 +18686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:51:39</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44271.66086805556</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19261,10 +18763,8 @@
           <t>4273764696</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:51:37</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44271.6608449074</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19336,10 +18836,8 @@
           <t>4273764535</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:51:27</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44271.66072916667</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19403,10 +18901,8 @@
           <t>4273582803</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:50:15</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44271.65989583333</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19482,10 +18978,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:50:06</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44271.65979166667</v>
       </c>
       <c r="I262" t="n">
         <v>10</v>
@@ -19561,10 +19055,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:48:12</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44271.65847222223</v>
       </c>
       <c r="I263" t="n">
         <v>3</v>
@@ -19640,10 +19132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:46:46</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44271.65747685185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19717,10 +19207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:46:36</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44271.65736111111</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19784,10 +19272,8 @@
           <t>4273745371</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:45:36</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44271.65666666667</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19855,10 +19341,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:44:51</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44271.65614583333</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -19922,10 +19406,8 @@
           <t>4273747785</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:44:37</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44271.6559837963</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20001,10 +19483,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:44:23</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44271.65582175926</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20072,10 +19552,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:43:33</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44271.65524305555</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20143,10 +19621,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:42:56</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44271.65481481481</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20214,10 +19690,8 @@
           <t>4273661025</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:42:31</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44271.65452546296</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20285,10 +19759,8 @@
           <t>4273738650</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:42:26</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44271.65446759259</v>
       </c>
       <c r="I273" t="n">
         <v>25</v>
@@ -20362,10 +19834,8 @@
           <t>4273695981</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:42:23</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44271.65443287037</v>
       </c>
       <c r="I274" t="n">
         <v>9</v>
@@ -20429,10 +19899,8 @@
           <t>4273745371</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:42:03</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44271.65420138889</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20511,10 +19979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:41:30</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44271.65381944444</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20582,10 +20048,8 @@
           <t>4273720465</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:40:44</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44271.65328703704</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20657,10 +20121,8 @@
           <t>4273504822</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:40:16</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44271.65296296297</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20728,10 +20190,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:38:29</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44271.65172453703</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20807,10 +20267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:38:27</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44271.65170138889</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20882,10 +20340,8 @@
           <t>4273720465</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:37:46</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44271.65122685185</v>
       </c>
       <c r="I281" t="n">
         <v>11</v>
@@ -20953,10 +20409,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:36:42</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44271.65048611111</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21028,10 +20482,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:35:44</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44271.64981481482</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21107,10 +20559,8 @@
           <t>4273725819</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:34:33</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44271.64899305555</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21186,10 +20636,8 @@
           <t>4273725440</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:34:08</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44271.6487037037</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21257,10 +20705,8 @@
           <t>4273720465</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:33:43</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44271.64841435185</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21332,10 +20778,8 @@
           <t>4273714713</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:33:19</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44271.64813657408</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21403,10 +20847,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:33:03</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44271.64795138889</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21478,10 +20920,8 @@
           <t>4273582803</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:31:03</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44271.6465625</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21553,10 +20993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:29:47</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44271.64568287037</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21624,10 +21062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:29:23</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44271.64540509259</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21699,10 +21135,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:29:16</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44271.64532407407</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21774,10 +21208,8 @@
           <t>4273701283</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:27:05</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44271.64380787037</v>
       </c>
       <c r="I293" t="n">
         <v>5</v>
@@ -21854,10 +21286,8 @@
           <t>4273686477</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:25:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44271.64256944445</v>
       </c>
       <c r="I294" t="n">
         <v>6</v>
@@ -21929,10 +21359,8 @@
           <t>4273695981</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:23:59</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44271.64165509259</v>
       </c>
       <c r="I295" t="n">
         <v>70</v>
@@ -22000,10 +21428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:22:46</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44271.64081018518</v>
       </c>
       <c r="I296" t="n">
         <v>2</v>
@@ -22077,10 +21503,8 @@
           <t>4273686477</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:21:49</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44271.64015046296</v>
       </c>
       <c r="I297" t="n">
         <v>52</v>
@@ -22163,10 +21587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:21:21</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44271.63982638889</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22238,10 +21660,8 @@
           <t>4273678986</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:21:09</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44271.6396875</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22301,10 +21721,8 @@
           <t>4273685354</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:20:34</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44271.63928240741</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22372,10 +21790,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:19:15</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44271.63836805556</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22447,10 +21863,8 @@
           <t>4273680392</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:17:57</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44271.63746527778</v>
       </c>
       <c r="I302" t="n">
         <v>26</v>
@@ -22518,10 +21932,8 @@
           <t>4273672762</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:17:48</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44271.63736111111</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22589,10 +22001,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:17:33</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44271.6371875</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22660,10 +22070,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:17:13</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44271.63695601852</v>
       </c>
       <c r="I305" t="n">
         <v>15</v>
@@ -22735,10 +22143,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:15:20</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44271.63564814815</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22810,10 +22216,8 @@
           <t>4273661751</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:13:20</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44271.63425925926</v>
       </c>
       <c r="I307" t="n">
         <v>7</v>
@@ -22881,10 +22285,8 @@
           <t>4273661307</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:12:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44271.63392361111</v>
       </c>
       <c r="I308" t="n">
         <v>13</v>
@@ -22952,10 +22354,8 @@
           <t>4273661025</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:12:35</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44271.63373842592</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23023,10 +22423,8 @@
           <t>4273660608</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:12:09</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44271.6334375</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23098,10 +22496,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:11:24</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44271.63291666667</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23177,10 +22573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:09:20</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44271.63148148148</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23244,10 +22638,8 @@
           <t>4273651519</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:08:06</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44271.630625</v>
       </c>
       <c r="I313" t="n">
         <v>8</v>
@@ -23311,10 +22703,8 @@
           <t>4273643475</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:07:44</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44271.63037037037</v>
       </c>
       <c r="I314" t="n">
         <v>20</v>
@@ -23386,10 +22776,8 @@
           <t>4273634901</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:06:07</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44271.62924768519</v>
       </c>
       <c r="I315" t="n">
         <v>20</v>
@@ -23457,10 +22845,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:04:41</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44271.62825231482</v>
       </c>
       <c r="I316" t="n">
         <v>3</v>
@@ -23536,10 +22922,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:02:32</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44271.62675925926</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23603,10 +22987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:00:58</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44271.62567129629</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23670,10 +23052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:00:07</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44271.62508101852</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23737,10 +23117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-16 15:00:00</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44271.625</v>
       </c>
       <c r="I320" t="n">
         <v>5</v>
@@ -23819,10 +23197,8 @@
           <t>4273546223</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:59:50</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44271.62488425926</v>
       </c>
       <c r="I321" t="n">
         <v>11</v>
@@ -23890,10 +23266,8 @@
           <t>4273619138</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:59:49</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44271.62487268518</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23965,10 +23339,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:57:53</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44271.62353009259</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24036,10 +23408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:57:52</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44271.62351851852</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24103,10 +23473,8 @@
           <t>4273621625</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:57:23</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44271.62318287037</v>
       </c>
       <c r="I325" t="n">
         <v>82</v>
@@ -24178,10 +23546,8 @@
           <t>4273613031</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:56:37</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44271.62265046296</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24249,10 +23615,8 @@
           <t>4273612274</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:55:49</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44271.6220949074</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24328,10 +23692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:55:01</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44271.62153935185</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24407,10 +23769,8 @@
           <t>4273602934</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:52:55</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44271.62008101852</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24486,10 +23846,8 @@
           <t>4273602630</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:52:34</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44271.61983796296</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24553,10 +23911,8 @@
           <t>4273607023</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:52:25</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44271.61973379629</v>
       </c>
       <c r="I331" t="n">
         <v>100</v>
@@ -24628,10 +23984,8 @@
           <t>4273598845</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:52:11</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44271.61957175926</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24707,10 +24061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:52:04</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44271.61949074074</v>
       </c>
       <c r="I333" t="n">
         <v>123</v>
@@ -24786,10 +24138,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:51:31</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44271.61910879629</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24853,10 +24203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:51:10</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44271.61886574074</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24932,10 +24280,8 @@
           <t>4273605384</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:50:41</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44271.61853009259</v>
       </c>
       <c r="I336" t="n">
         <v>9</v>
@@ -25007,10 +24353,8 @@
           <t>4273605253</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:50:32</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44271.61842592592</v>
       </c>
       <c r="I337" t="n">
         <v>2</v>
@@ -25078,10 +24422,8 @@
           <t>4273594274</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:49:29</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44271.61769675926</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25157,10 +24499,8 @@
           <t>4273595339</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:48:21</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44271.61690972222</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25232,10 +24572,8 @@
           <t>4273591555</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:46:32</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44271.61564814814</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25307,10 +24645,8 @@
           <t>4273591460</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:46:26</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44271.61557870371</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25378,10 +24714,8 @@
           <t>4273571684</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:46:19</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44271.61549768518</v>
       </c>
       <c r="I342" t="n">
         <v>6</v>
@@ -25453,10 +24787,8 @@
           <t>4273582803</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:45:38</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44271.61502314815</v>
       </c>
       <c r="I343" t="n">
         <v>3</v>
@@ -25532,10 +24864,8 @@
           <t>4273493913</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:45:31</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44271.61494212963</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25607,10 +24937,8 @@
           <t>4273526477</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:44:39</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44271.61434027777</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25682,10 +25010,8 @@
           <t>4273517475</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:43:59</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44271.61387731481</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25757,10 +25083,8 @@
           <t>4273579019</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:43:45</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44271.61371527778</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25828,10 +25152,8 @@
           <t>4273578730</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:43:26</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44271.61349537037</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25899,10 +25221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:43:22</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44271.61344907407</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25974,10 +25294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:42:56</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44271.61314814815</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26053,10 +25371,8 @@
           <t>4273577722</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:42:17</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44271.61269675926</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26132,10 +25448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:41:02</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44271.6118287037</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26211,10 +25525,8 @@
           <t>4273571899</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:40:35</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44271.6115162037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26282,10 +25594,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:40:32</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44271.61148148148</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26353,10 +25663,8 @@
           <t>4273571684</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:40:20</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44271.61134259259</v>
       </c>
       <c r="I355" t="n">
         <v>24</v>
@@ -26424,10 +25732,8 @@
           <t>4273575486</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:39:50</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44271.61099537037</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26491,10 +25797,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:39:30</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44271.61076388889</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26570,10 +25874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:39:06</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44271.61048611111</v>
       </c>
       <c r="I358" t="n">
         <v>32</v>
@@ -26645,10 +25947,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:38:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44271.61038194445</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26716,10 +26016,8 @@
           <t>4273564592</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:38:51</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44271.6103125</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26783,10 +26081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:38:22</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44271.60997685185</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26854,10 +26150,8 @@
           <t>4273566064</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:38:14</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44271.60988425926</v>
       </c>
       <c r="I362" t="n">
         <v>18</v>
@@ -26925,10 +26219,8 @@
           <t>4273565725</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:37:51</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44271.60961805555</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26996,10 +26288,8 @@
           <t>4273493913</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:37:39</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44271.60947916667</v>
       </c>
       <c r="I364" t="n">
         <v>58</v>
@@ -27075,10 +26365,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:37:28</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44271.60935185185</v>
       </c>
       <c r="I365" t="n">
         <v>6</v>
@@ -27154,10 +26442,8 @@
           <t>4273561757</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:35:40</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44271.60810185185</v>
       </c>
       <c r="I366" t="n">
         <v>4</v>
@@ -27217,10 +26503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:35:31</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44271.60799768518</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27292,10 +26576,8 @@
           <t>4273560777</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:34:36</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44271.60736111111</v>
       </c>
       <c r="I368" t="n">
         <v>11</v>
@@ -27363,10 +26645,8 @@
           <t>4273556385</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:34:30</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44271.60729166667</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27426,10 +26706,8 @@
           <t>4273556118</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:34:13</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44271.60709490741</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27497,10 +26775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:34:09</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44271.60704861111</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27572,10 +26848,8 @@
           <t>4273543741</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:31:33</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44271.60524305556</v>
       </c>
       <c r="I372" t="n">
         <v>13</v>
@@ -27639,10 +26913,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:30:57</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44271.60482638889</v>
       </c>
       <c r="I373" t="n">
         <v>60</v>
@@ -27710,10 +26982,8 @@
           <t>4273543023</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:30:41</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44271.6046412037</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27781,10 +27051,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:30:32</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44271.60453703703</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27856,10 +27124,8 @@
           <t>4273546223</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:29:35</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44271.60387731482</v>
       </c>
       <c r="I376" t="n">
         <v>37</v>
@@ -27931,10 +27197,8 @@
           <t>4273545821</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:29:09</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44271.60357638889</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28008,10 +27272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:28:45</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44271.60329861111</v>
       </c>
       <c r="I378" t="n">
         <v>519</v>
@@ -28087,10 +27349,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:28:31</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44271.60313657407</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28162,10 +27422,8 @@
           <t>4273545215</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:28:28</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44271.60310185186</v>
       </c>
       <c r="I380" t="n">
         <v>29</v>
@@ -28237,10 +27495,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:28:23</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44271.60304398148</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28316,10 +27572,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:26:57</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44271.60204861111</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28383,10 +27637,8 @@
           <t>4273529173</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:26:30</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44271.60173611111</v>
       </c>
       <c r="I383" t="n">
         <v>13</v>
@@ -28450,10 +27702,8 @@
           <t>4273532995</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:26:01</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44271.60140046296</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28517,10 +27767,8 @@
           <t>4273528616</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44271.60131944445</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28592,10 +27840,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:46</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44271.60122685185</v>
       </c>
       <c r="I386" t="n">
         <v>4</v>
@@ -28663,10 +27909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:43</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44271.60119212963</v>
       </c>
       <c r="I387" t="n">
         <v>180</v>
@@ -28730,10 +27974,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:34</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44271.60108796296</v>
       </c>
       <c r="I388" t="n">
         <v>7</v>
@@ -28809,10 +28051,8 @@
           <t>4273528030</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:25:14</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44271.60085648148</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28880,10 +28120,8 @@
           <t>4273517717</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:23:53</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44271.59991898148</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28960,10 +28198,8 @@
           <t>4273526477</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:23:31</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44271.59966435185</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29031,10 +28267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:22:45</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44271.59913194444</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29098,10 +28332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:22:28</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44271.59893518518</v>
       </c>
       <c r="I393" t="n">
         <v>341</v>
@@ -29177,10 +28409,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:22:07</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44271.59869212963</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29244,10 +28474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:22:05</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44271.59866898148</v>
       </c>
       <c r="I395" t="n">
         <v>1</v>
@@ -29315,10 +28543,8 @@
           <t>4273514662</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:21:34</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44271.59831018518</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29394,10 +28620,8 @@
           <t>4273517717</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:50</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44271.59780092593</v>
       </c>
       <c r="I397" t="n">
         <v>2</v>
@@ -29469,10 +28693,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:45</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44271.59774305556</v>
       </c>
       <c r="I398" t="n">
         <v>3</v>
@@ -29547,10 +28769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:37</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44271.59765046297</v>
       </c>
       <c r="I399" t="n">
         <v>1051</v>
@@ -29614,10 +28834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:28</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44271.5975462963</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29689,10 +28907,8 @@
           <t>4273517717</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:11</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44271.59734953703</v>
       </c>
       <c r="I401" t="n">
         <v>2</v>
@@ -29769,10 +28985,8 @@
           <t>4273509203</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:20:01</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44271.5972337963</v>
       </c>
       <c r="I402" t="n">
         <v>4</v>
@@ -29840,10 +29054,8 @@
           <t>4273517475</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:56</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44271.59717592593</v>
       </c>
       <c r="I403" t="n">
         <v>8</v>
@@ -29919,10 +29131,8 @@
           <t>4273512922</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:45</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44271.59704861111</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29990,10 +29200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:23</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44271.59679398148</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30057,10 +29265,8 @@
           <t>4273516896</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:19</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44271.59674768519</v>
       </c>
       <c r="I406" t="n">
         <v>20</v>
@@ -30128,10 +29334,8 @@
           <t>4273508461</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:16</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44271.59671296296</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30207,10 +29411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:14</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44271.59668981482</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30282,10 +29484,8 @@
           <t>4273508414</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:14</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44271.59668981482</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30361,10 +29561,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:07</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44271.5966087963</v>
       </c>
       <c r="I410" t="n">
         <v>62</v>
@@ -30428,10 +29626,8 @@
           <t>4273508240</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:19:03</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44271.5965625</v>
       </c>
       <c r="I411" t="n">
         <v>6</v>
@@ -30499,10 +29695,8 @@
           <t>4273512001</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:18:46</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44271.59636574074</v>
       </c>
       <c r="I412" t="n">
         <v>13</v>
@@ -30570,10 +29764,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:18:35</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44271.59623842593</v>
       </c>
       <c r="I413" t="n">
         <v>15</v>
@@ -30637,10 +29829,8 @@
           <t>4273507555</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:18:22</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44271.59608796296</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30708,10 +29898,8 @@
           <t>4273515837</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:18:09</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44271.5959375</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30779,10 +29967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:17:56</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44271.59578703704</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30842,10 +30028,8 @@
           <t>4273504822</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:17:56</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44271.59578703704</v>
       </c>
       <c r="I417" t="n">
         <v>8</v>
@@ -30917,10 +30101,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:17:40</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44271.59560185186</v>
       </c>
       <c r="I418" t="n">
         <v>51</v>
@@ -30996,10 +30178,8 @@
           <t>4273504822</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:17:03</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44271.59517361111</v>
       </c>
       <c r="I419" t="n">
         <v>6</v>
@@ -31071,10 +30251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:17:00</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44271.59513888889</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31142,10 +30320,8 @@
           <t>4273504753</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:16:59</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44271.59512731482</v>
       </c>
       <c r="I421" t="n">
         <v>1</v>
@@ -31217,10 +30393,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:16:16</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44271.59462962963</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31288,10 +30462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:16:03</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44271.59447916667</v>
       </c>
       <c r="I423" t="n">
         <v>5</v>
@@ -31363,10 +30535,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:16:01</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44271.59445601852</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31442,10 +30612,8 @@
           <t>4273503602</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:15:45</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44271.59427083333</v>
       </c>
       <c r="I425" t="n">
         <v>119</v>
@@ -31521,10 +30689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:15:41</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44271.59422453704</v>
       </c>
       <c r="I426" t="n">
         <v>139</v>
@@ -31592,10 +30758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:15:18</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44271.59395833333</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31663,10 +30827,8 @@
           <t>4273502902</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:15:01</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44271.59376157408</v>
       </c>
       <c r="I428" t="n">
         <v>11</v>
@@ -31738,10 +30900,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:14:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44271.59355324074</v>
       </c>
       <c r="I429" t="n">
         <v>6</v>
@@ -31817,10 +30977,8 @@
           <t>4273493913</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:14:33</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44271.5934375</v>
       </c>
       <c r="I430" t="n">
         <v>88</v>
@@ -31896,10 +31054,8 @@
           <t>4273501907</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:13:57</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44271.59302083333</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31967,10 +31123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:13:15</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44271.59253472222</v>
       </c>
       <c r="I432" t="n">
         <v>1014</v>
@@ -32046,10 +31200,8 @@
           <t>4273492341</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:53</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44271.59228009259</v>
       </c>
       <c r="I433" t="n">
         <v>73</v>
@@ -32125,10 +31277,8 @@
           <t>4273500802</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:49</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44271.5922337963</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32192,10 +31342,8 @@
           <t>4273475393</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:36</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44271.59208333334</v>
       </c>
       <c r="I435" t="n">
         <v>34</v>
@@ -32259,10 +31407,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:26</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44271.59196759259</v>
       </c>
       <c r="I436" t="n">
         <v>8</v>
@@ -32338,10 +31484,8 @@
           <t>4273470422</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:25</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44271.59195601852</v>
       </c>
       <c r="I437" t="n">
         <v>8</v>
@@ -32417,10 +31561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:22</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44271.5919212963</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32492,10 +31634,8 @@
           <t>4273491689</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:13</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44271.59181712963</v>
       </c>
       <c r="I439" t="n">
         <v>6</v>
@@ -32567,10 +31707,8 @@
           <t>4273479203</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:12:12</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44271.59180555555</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32638,10 +31776,8 @@
           <t>4273491408</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:56</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44271.59162037037</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32709,10 +31845,8 @@
           <t>4273489644</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:31</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44271.59133101852</v>
       </c>
       <c r="I442" t="n">
         <v>38</v>
@@ -32777,10 +31911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:19</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44271.59119212963</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32856,10 +31988,8 @@
           <t>4273490735</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:14</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44271.59113425926</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32927,10 +32057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:09</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44271.59107638889</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33002,10 +32130,8 @@
           <t>4273484875</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:08</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44271.59106481481</v>
       </c>
       <c r="I446" t="n">
         <v>7</v>
@@ -33069,10 +32195,8 @@
           <t>4273489146</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:11:00</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44271.59097222222</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -33149,10 +32273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:10:52</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44271.59087962963</v>
       </c>
       <c r="I448" t="n">
         <v>21</v>
@@ -33220,10 +32342,8 @@
           <t>4273479931</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:10:24</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44271.59055555556</v>
       </c>
       <c r="I449" t="n">
         <v>56</v>
@@ -33295,10 +32415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:10:02</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44271.59030092593</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33362,10 +32480,8 @@
           <t>4273488210</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:58</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44271.59025462963</v>
       </c>
       <c r="I451" t="n">
         <v>224</v>
@@ -33437,10 +32553,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:53</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44271.59019675926</v>
       </c>
       <c r="I452" t="n">
         <v>11</v>
@@ -33512,10 +32626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:42</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44271.59006944444</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33591,10 +32703,8 @@
           <t>4273479203</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:39</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44271.59003472222</v>
       </c>
       <c r="I454" t="n">
         <v>10</v>
@@ -33662,10 +32772,8 @@
           <t>4273479017</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:27</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44271.58989583333</v>
       </c>
       <c r="I455" t="n">
         <v>4</v>
@@ -33737,10 +32845,8 @@
           <t>4273478963</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:23</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44271.58984953703</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33800,10 +32906,8 @@
           <t>4273487602</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:19</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44271.58980324074</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33879,10 +32983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:09</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44271.5896875</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33948,10 +33050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:09:04</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44271.58962962963</v>
       </c>
       <c r="I459" t="n">
         <v>85</v>
@@ -34019,10 +33119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:08:57</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44271.58954861111</v>
       </c>
       <c r="I460" t="n">
         <v>8</v>
@@ -34090,10 +33188,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:08:31</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44271.58924768519</v>
       </c>
       <c r="I461" t="n">
         <v>13</v>
@@ -34157,10 +33253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:08:11</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44271.5890162037</v>
       </c>
       <c r="I462" t="n">
         <v>3</v>
@@ -34236,10 +33330,8 @@
           <t>4273477705</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:08:02</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44271.58891203703</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34315,10 +33407,8 @@
           <t>4273486249</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:07:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44271.58876157407</v>
       </c>
       <c r="I464" t="n">
         <v>5</v>
@@ -34386,10 +33476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:07:21</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44271.5884375</v>
       </c>
       <c r="I465" t="n">
         <v>2</v>
@@ -34457,10 +33545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:07:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44271.58840277778</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34524,10 +33610,8 @@
           <t>4273474814</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:06:14</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44271.58766203704</v>
       </c>
       <c r="I467" t="n">
         <v>10</v>
@@ -34599,10 +33683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:57</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44271.58746527778</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34670,10 +33752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:56</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44271.5874537037</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34745,10 +33825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:46</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44271.58733796296</v>
       </c>
       <c r="I470" t="n">
         <v>1</v>
@@ -34824,10 +33902,8 @@
           <t>4273475393</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:43</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44271.58730324074</v>
       </c>
       <c r="I471" t="n">
         <v>90</v>
@@ -34903,10 +33979,8 @@
           <t>4273475139</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:26</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44271.58710648148</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34974,10 +34048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:24</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44271.58708333333</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35041,10 +34113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:20</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44271.58703703704</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35116,10 +34186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:17</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44271.58700231482</v>
       </c>
       <c r="I475" t="n">
         <v>49</v>
@@ -35191,10 +34259,8 @@
           <t>4273473867</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:13</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44271.58695601852</v>
       </c>
       <c r="I476" t="n">
         <v>5</v>
@@ -35266,10 +34332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:05:03</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44271.58684027778</v>
       </c>
       <c r="I477" t="n">
         <v>2</v>
@@ -35343,10 +34407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:04:22</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44271.58636574074</v>
       </c>
       <c r="I478" t="n">
         <v>1233</v>
@@ -35418,10 +34480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:04:18</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44271.58631944445</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35485,10 +34545,8 @@
           <t>4273472352</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:03:31</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44271.58577546296</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35552,10 +34610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:03:21</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44271.58565972222</v>
       </c>
       <c r="I481" t="n">
         <v>355</v>
@@ -35615,10 +34671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:03:09</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44271.58552083333</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35690,10 +34744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:03:02</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44271.58543981481</v>
       </c>
       <c r="I483" t="n">
         <v>6</v>
@@ -35765,10 +34817,8 @@
           <t>4273462730</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:02:52</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44271.58532407408</v>
       </c>
       <c r="I484" t="n">
         <v>16</v>
@@ -35832,10 +34882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:02:05</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44271.58478009259</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35907,10 +34955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:02:03</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44271.58475694444</v>
       </c>
       <c r="I486" t="n">
         <v>32</v>
@@ -35978,10 +35024,8 @@
           <t>4273466377</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:53</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44271.58464120371</v>
       </c>
       <c r="I487" t="n">
         <v>11</v>
@@ -36057,10 +35101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:48</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44271.58458333334</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36132,10 +35174,8 @@
           <t>4273466309</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:48</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44271.58458333334</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36207,10 +35247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:37</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44271.58445601852</v>
       </c>
       <c r="I490" t="n">
         <v>3</v>
@@ -36282,10 +35320,8 @@
           <t>4273470489</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:33</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44271.58440972222</v>
       </c>
       <c r="I491" t="n">
         <v>40</v>
@@ -36349,10 +35385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:30</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44271.584375</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36424,10 +35458,8 @@
           <t>4273470422</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:29</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44271.58436342593</v>
       </c>
       <c r="I493" t="n">
         <v>18</v>
@@ -36491,10 +35523,8 @@
           <t>4273461343</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:28</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44271.58435185185</v>
       </c>
       <c r="I494" t="n">
         <v>11</v>
@@ -36570,10 +35600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:05</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44271.58408564814</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36633,10 +35661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:01:03</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44271.5840625</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36700,10 +35726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:00:58</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44271.58400462963</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36775,10 +35799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:00:42</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44271.58381944444</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36846,10 +35868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:00:23</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44271.58359953704</v>
       </c>
       <c r="I499" t="n">
         <v>3</v>
@@ -36921,10 +35941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:00:23</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44271.58359953704</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -37000,10 +36018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-03-16 14:00:19</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44271.58355324074</v>
       </c>
       <c r="I501" t="n">
         <v>4809</v>
